--- a/output/EventSummary/patient-ident-1.xlsx
+++ b/output/EventSummary/patient-ident-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6479" uniqueCount="601">
   <si>
     <t>Path</t>
   </si>
@@ -421,7 +421,17 @@
     <t>dateOfArrival</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/date-of-arrival}
+</t>
+  </si>
+  <si>
     <t>Year of Arrival</t>
+  </si>
+  <si>
+    <t>The year of arrival in Australia from the Australian Bureau of Statics (ABS) and the Australian Institute of Health and Wealfare (AIHW). The year a person first arrived in Australia, from another country, with the intention of living in Australia for one year or more.</t>
+  </si>
+  <si>
+    <t>See [Australian Bureau of Statics (ABS) 1200.0.55.007 - Year of Arrival Standard, 2014, Version 1.5](https://www.abs.gov.au/AUSSTATS/abs@.nsf/Lookup/1200.0.55.007Main+Features12014,%20Version%201.5?OpenDocument)  and the [Australian Institute of Health and Wealfare (AIHW) Person—year of first arrival in Australia](https://meteor.aihw.gov.au/content/index.phtml/itemId/269447) for further materials.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -3725,7 +3735,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>52</v>
@@ -3737,15 +3747,17 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>44</v>
@@ -3803,7 +3815,7 @@
         <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>102</v>
@@ -3826,11 +3838,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3852,16 +3864,16 @@
         <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3910,7 +3922,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3942,7 +3954,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3965,17 +3977,17 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>44</v>
@@ -4012,7 +4024,7 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
@@ -4022,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -4037,16 +4049,16 @@
         <v>63</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>44</v>
@@ -4054,10 +4066,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>44</v>
@@ -4079,17 +4091,17 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -4138,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -4150,19 +4162,19 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>44</v>
@@ -4170,7 +4182,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4196,10 +4208,10 @@
         <v>53</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4250,7 +4262,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -4265,7 +4277,7 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>44</v>
@@ -4282,7 +4294,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4353,7 +4365,7 @@
         <v>99</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>44</v>
@@ -4362,7 +4374,7 @@
         <v>100</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4394,10 +4406,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>44</v>
@@ -4419,13 +4431,13 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4476,7 +4488,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4508,10 +4520,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>44</v>
@@ -4533,13 +4545,13 @@
         <v>44</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4590,7 +4602,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4622,7 +4634,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4648,16 +4660,16 @@
         <v>71</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -4682,13 +4694,13 @@
         <v>44</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>44</v>
@@ -4706,7 +4718,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4721,7 +4733,7 @@
         <v>63</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>44</v>
@@ -4738,7 +4750,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4761,19 +4773,19 @@
         <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4783,7 +4795,7 @@
         <v>44</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>44</v>
@@ -4798,13 +4810,13 @@
         <v>44</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>44</v>
@@ -4822,7 +4834,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4837,7 +4849,7 @@
         <v>63</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>44</v>
@@ -4846,7 +4858,7 @@
         <v>44</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>44</v>
@@ -4854,7 +4866,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4880,10 +4892,10 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4934,7 +4946,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4949,7 +4961,7 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>44</v>
@@ -4966,11 +4978,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4992,13 +5004,13 @@
         <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5039,7 +5051,7 @@
         <v>99</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>44</v>
@@ -5048,7 +5060,7 @@
         <v>100</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -5063,7 +5075,7 @@
         <v>102</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>44</v>
@@ -5080,7 +5092,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5103,19 +5115,19 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -5164,7 +5176,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -5179,7 +5191,7 @@
         <v>63</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>44</v>
@@ -5188,7 +5200,7 @@
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -5196,7 +5208,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5222,23 +5234,23 @@
         <v>53</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>44</v>
@@ -5280,7 +5292,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -5295,7 +5307,7 @@
         <v>63</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>44</v>
@@ -5304,7 +5316,7 @@
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -5312,7 +5324,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5338,29 +5350,29 @@
         <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>44</v>
@@ -5396,7 +5408,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -5411,7 +5423,7 @@
         <v>63</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>44</v>
@@ -5420,7 +5432,7 @@
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -5428,7 +5440,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5454,13 +5466,13 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5474,7 +5486,7 @@
         <v>44</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>44</v>
@@ -5483,7 +5495,7 @@
         <v>44</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="W30" t="s" s="2">
         <v>44</v>
@@ -5510,7 +5522,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5525,7 +5537,7 @@
         <v>63</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>44</v>
@@ -5534,7 +5546,7 @@
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -5542,7 +5554,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5565,13 +5577,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5622,7 +5634,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5637,7 +5649,7 @@
         <v>63</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>44</v>
@@ -5646,7 +5658,7 @@
         <v>44</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>44</v>
@@ -5654,7 +5666,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5677,16 +5689,16 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5736,7 +5748,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5751,7 +5763,7 @@
         <v>63</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5760,7 +5772,7 @@
         <v>44</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>44</v>
@@ -5768,10 +5780,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>44</v>
@@ -5793,17 +5805,17 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5852,7 +5864,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5867,16 +5879,16 @@
         <v>63</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>44</v>
@@ -5884,7 +5896,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5910,10 +5922,10 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5964,7 +5976,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5979,7 +5991,7 @@
         <v>44</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>44</v>
@@ -5996,11 +6008,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -6022,13 +6034,13 @@
         <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6069,7 +6081,7 @@
         <v>99</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>44</v>
@@ -6078,7 +6090,7 @@
         <v>100</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -6093,7 +6105,7 @@
         <v>102</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -6110,7 +6122,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6136,16 +6148,16 @@
         <v>71</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -6170,13 +6182,13 @@
         <v>44</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>44</v>
@@ -6194,7 +6206,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -6209,7 +6221,7 @@
         <v>63</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
@@ -6226,7 +6238,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6249,19 +6261,19 @@
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -6271,7 +6283,7 @@
         <v>44</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>44</v>
@@ -6286,13 +6298,13 @@
         <v>44</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>44</v>
@@ -6310,7 +6322,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -6325,7 +6337,7 @@
         <v>63</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>44</v>
@@ -6334,7 +6346,7 @@
         <v>44</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>44</v>
@@ -6342,7 +6354,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6368,10 +6380,10 @@
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6422,7 +6434,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6437,7 +6449,7 @@
         <v>44</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>44</v>
@@ -6454,11 +6466,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6480,13 +6492,13 @@
         <v>96</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6527,7 +6539,7 @@
         <v>99</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>44</v>
@@ -6536,7 +6548,7 @@
         <v>100</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6551,7 +6563,7 @@
         <v>102</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>44</v>
@@ -6568,7 +6580,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6591,19 +6603,19 @@
         <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -6652,7 +6664,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6667,7 +6679,7 @@
         <v>63</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>44</v>
@@ -6676,7 +6688,7 @@
         <v>44</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>44</v>
@@ -6684,7 +6696,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6710,23 +6722,23 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="R41" t="s" s="2">
         <v>44</v>
@@ -6768,7 +6780,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6783,7 +6795,7 @@
         <v>63</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>44</v>
@@ -6792,7 +6804,7 @@
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -6800,7 +6812,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6826,29 +6838,29 @@
         <v>65</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>44</v>
@@ -6884,7 +6896,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6899,7 +6911,7 @@
         <v>63</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>44</v>
@@ -6908,7 +6920,7 @@
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6916,7 +6928,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6942,13 +6954,13 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6962,7 +6974,7 @@
         <v>44</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>44</v>
@@ -6971,7 +6983,7 @@
         <v>44</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>44</v>
@@ -6998,7 +7010,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -7013,7 +7025,7 @@
         <v>63</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>44</v>
@@ -7022,7 +7034,7 @@
         <v>44</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>44</v>
@@ -7030,7 +7042,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7053,13 +7065,13 @@
         <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7110,7 +7122,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -7125,7 +7137,7 @@
         <v>63</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>44</v>
@@ -7134,7 +7146,7 @@
         <v>44</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>44</v>
@@ -7142,7 +7154,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7168,10 +7180,10 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7222,7 +7234,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7237,7 +7249,7 @@
         <v>44</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>44</v>
@@ -7254,11 +7266,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7280,13 +7292,13 @@
         <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7327,7 +7339,7 @@
         <v>99</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>44</v>
@@ -7336,7 +7348,7 @@
         <v>100</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7351,7 +7363,7 @@
         <v>102</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>44</v>
@@ -7368,7 +7380,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7391,16 +7403,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7450,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7459,13 +7471,13 @@
         <v>51</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>44</v>
@@ -7474,7 +7486,7 @@
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -7482,7 +7494,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7505,23 +7517,23 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>44</v>
@@ -7566,7 +7578,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7575,13 +7587,13 @@
         <v>51</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>44</v>
@@ -7590,7 +7602,7 @@
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -7598,7 +7610,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7621,16 +7633,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7680,7 +7692,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7695,7 +7707,7 @@
         <v>63</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7704,7 +7716,7 @@
         <v>44</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>44</v>
@@ -7712,10 +7724,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>44</v>
@@ -7737,17 +7749,17 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -7796,7 +7808,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7808,19 +7820,19 @@
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>44</v>
@@ -7828,7 +7840,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7854,10 +7866,10 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7908,7 +7920,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7923,7 +7935,7 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>44</v>
@@ -7940,11 +7952,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7966,13 +7978,13 @@
         <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8013,7 +8025,7 @@
         <v>99</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>44</v>
@@ -8022,7 +8034,7 @@
         <v>100</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -8037,7 +8049,7 @@
         <v>102</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>44</v>
@@ -8054,7 +8066,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8080,16 +8092,16 @@
         <v>71</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -8114,13 +8126,13 @@
         <v>44</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>44</v>
@@ -8138,7 +8150,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -8153,7 +8165,7 @@
         <v>63</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>44</v>
@@ -8170,7 +8182,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8193,19 +8205,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>44</v>
@@ -8230,13 +8242,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -8254,7 +8266,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -8269,7 +8281,7 @@
         <v>63</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>44</v>
@@ -8278,7 +8290,7 @@
         <v>44</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>44</v>
@@ -8286,7 +8298,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8312,10 +8324,10 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8366,7 +8378,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8381,7 +8393,7 @@
         <v>44</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>44</v>
@@ -8398,11 +8410,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8424,13 +8436,13 @@
         <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8471,7 +8483,7 @@
         <v>99</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>44</v>
@@ -8480,7 +8492,7 @@
         <v>100</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8495,7 +8507,7 @@
         <v>102</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>44</v>
@@ -8512,7 +8524,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8535,19 +8547,19 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>44</v>
@@ -8596,7 +8608,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8611,7 +8623,7 @@
         <v>63</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>44</v>
@@ -8620,7 +8632,7 @@
         <v>44</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>44</v>
@@ -8628,7 +8640,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8654,16 +8666,16 @@
         <v>53</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8712,7 +8724,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8727,7 +8739,7 @@
         <v>63</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>44</v>
@@ -8736,7 +8748,7 @@
         <v>44</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>44</v>
@@ -8744,7 +8756,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8770,29 +8782,29 @@
         <v>65</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>44</v>
@@ -8828,7 +8840,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8843,7 +8855,7 @@
         <v>63</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>44</v>
@@ -8852,7 +8864,7 @@
         <v>44</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>44</v>
@@ -8860,7 +8872,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8886,13 +8898,13 @@
         <v>53</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8906,7 +8918,7 @@
         <v>44</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>44</v>
@@ -8915,7 +8927,7 @@
         <v>44</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>44</v>
@@ -8942,7 +8954,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8957,7 +8969,7 @@
         <v>63</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>44</v>
@@ -8966,7 +8978,7 @@
         <v>44</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>44</v>
@@ -8974,7 +8986,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8997,13 +9009,13 @@
         <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9054,7 +9066,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -9069,7 +9081,7 @@
         <v>63</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>44</v>
@@ -9078,7 +9090,7 @@
         <v>44</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>44</v>
@@ -9086,7 +9098,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9109,16 +9121,16 @@
         <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9168,7 +9180,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -9183,7 +9195,7 @@
         <v>63</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>44</v>
@@ -9192,7 +9204,7 @@
         <v>44</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>44</v>
@@ -9200,10 +9212,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>44</v>
@@ -9225,17 +9237,17 @@
         <v>52</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9284,7 +9296,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9299,16 +9311,16 @@
         <v>63</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>44</v>
@@ -9316,7 +9328,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9342,10 +9354,10 @@
         <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9396,7 +9408,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -9411,7 +9423,7 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>44</v>
@@ -9428,11 +9440,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9454,13 +9466,13 @@
         <v>96</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9501,7 +9513,7 @@
         <v>99</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>44</v>
@@ -9510,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9525,7 +9537,7 @@
         <v>102</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>44</v>
@@ -9542,7 +9554,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9568,16 +9580,16 @@
         <v>71</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9602,13 +9614,13 @@
         <v>44</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>44</v>
@@ -9626,7 +9638,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9641,7 +9653,7 @@
         <v>63</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>44</v>
@@ -9658,7 +9670,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9681,19 +9693,19 @@
         <v>52</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>44</v>
@@ -9703,7 +9715,7 @@
         <v>44</v>
       </c>
       <c r="R67" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>44</v>
@@ -9718,13 +9730,13 @@
         <v>44</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9742,7 +9754,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9757,7 +9769,7 @@
         <v>63</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>44</v>
@@ -9766,7 +9778,7 @@
         <v>44</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>44</v>
@@ -9774,7 +9786,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9800,10 +9812,10 @@
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9854,7 +9866,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9869,7 +9881,7 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9886,11 +9898,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9912,13 +9924,13 @@
         <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9959,7 +9971,7 @@
         <v>99</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC69" t="s" s="2">
         <v>44</v>
@@ -9968,7 +9980,7 @@
         <v>100</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9983,7 +9995,7 @@
         <v>102</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -10000,7 +10012,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10023,19 +10035,19 @@
         <v>52</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>44</v>
@@ -10084,7 +10096,7 @@
         <v>44</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -10099,7 +10111,7 @@
         <v>63</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>44</v>
@@ -10108,7 +10120,7 @@
         <v>44</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>44</v>
@@ -10116,7 +10128,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10142,23 +10154,23 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>44</v>
@@ -10200,7 +10212,7 @@
         <v>44</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -10215,7 +10227,7 @@
         <v>63</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>44</v>
@@ -10224,7 +10236,7 @@
         <v>44</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>44</v>
@@ -10232,7 +10244,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10258,29 +10270,29 @@
         <v>65</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>44</v>
@@ -10316,7 +10328,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10331,7 +10343,7 @@
         <v>63</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>44</v>
@@ -10340,7 +10352,7 @@
         <v>44</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>44</v>
@@ -10348,7 +10360,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10374,13 +10386,13 @@
         <v>53</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10394,7 +10406,7 @@
         <v>44</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>44</v>
@@ -10403,7 +10415,7 @@
         <v>44</v>
       </c>
       <c r="V73" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="W73" t="s" s="2">
         <v>44</v>
@@ -10430,7 +10442,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10445,7 +10457,7 @@
         <v>63</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>44</v>
@@ -10454,7 +10466,7 @@
         <v>44</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>44</v>
@@ -10462,7 +10474,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10485,13 +10497,13 @@
         <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10542,7 +10554,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10557,7 +10569,7 @@
         <v>63</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>44</v>
@@ -10566,7 +10578,7 @@
         <v>44</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>44</v>
@@ -10574,7 +10586,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10597,16 +10609,16 @@
         <v>52</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10656,7 +10668,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10671,7 +10683,7 @@
         <v>63</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>44</v>
@@ -10680,7 +10692,7 @@
         <v>44</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10688,10 +10700,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>44</v>
@@ -10713,17 +10725,17 @@
         <v>52</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>44</v>
@@ -10772,7 +10784,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10787,16 +10799,16 @@
         <v>63</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10804,7 +10816,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10830,10 +10842,10 @@
         <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10884,7 +10896,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10899,7 +10911,7 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>44</v>
@@ -10916,11 +10928,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10942,13 +10954,13 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10989,7 +11001,7 @@
         <v>99</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>44</v>
@@ -10998,7 +11010,7 @@
         <v>100</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
@@ -11013,7 +11025,7 @@
         <v>102</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>44</v>
@@ -11030,7 +11042,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11056,16 +11068,16 @@
         <v>71</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>44</v>
@@ -11090,13 +11102,13 @@
         <v>44</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>44</v>
@@ -11114,7 +11126,7 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
@@ -11129,7 +11141,7 @@
         <v>63</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>44</v>
@@ -11146,7 +11158,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11169,19 +11181,19 @@
         <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>44</v>
@@ -11191,7 +11203,7 @@
         <v>44</v>
       </c>
       <c r="R80" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>44</v>
@@ -11206,13 +11218,13 @@
         <v>44</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>44</v>
@@ -11230,7 +11242,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -11245,7 +11257,7 @@
         <v>63</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>44</v>
@@ -11254,7 +11266,7 @@
         <v>44</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>44</v>
@@ -11262,7 +11274,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11288,10 +11300,10 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11342,7 +11354,7 @@
         <v>44</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>42</v>
@@ -11357,7 +11369,7 @@
         <v>44</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>44</v>
@@ -11374,11 +11386,11 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -11400,13 +11412,13 @@
         <v>96</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11447,7 +11459,7 @@
         <v>99</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>44</v>
@@ -11456,7 +11468,7 @@
         <v>100</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11471,7 +11483,7 @@
         <v>102</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>44</v>
@@ -11488,7 +11500,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11511,19 +11523,19 @@
         <v>52</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>44</v>
@@ -11572,7 +11584,7 @@
         <v>44</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11587,7 +11599,7 @@
         <v>63</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>44</v>
@@ -11596,7 +11608,7 @@
         <v>44</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>44</v>
@@ -11604,7 +11616,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11630,23 +11642,23 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>44</v>
@@ -11688,7 +11700,7 @@
         <v>44</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>42</v>
@@ -11703,7 +11715,7 @@
         <v>63</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>44</v>
@@ -11712,7 +11724,7 @@
         <v>44</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>44</v>
@@ -11720,7 +11732,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11746,29 +11758,29 @@
         <v>65</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>44</v>
@@ -11804,7 +11816,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11819,7 +11831,7 @@
         <v>63</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>44</v>
@@ -11828,7 +11840,7 @@
         <v>44</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>44</v>
@@ -11836,7 +11848,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11862,13 +11874,13 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11882,7 +11894,7 @@
         <v>44</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>44</v>
@@ -11891,7 +11903,7 @@
         <v>44</v>
       </c>
       <c r="V86" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="W86" t="s" s="2">
         <v>44</v>
@@ -11918,7 +11930,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11933,7 +11945,7 @@
         <v>63</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>44</v>
@@ -11942,7 +11954,7 @@
         <v>44</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>44</v>
@@ -11950,7 +11962,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11973,13 +11985,13 @@
         <v>52</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12030,7 +12042,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -12045,7 +12057,7 @@
         <v>63</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>44</v>
@@ -12054,7 +12066,7 @@
         <v>44</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>44</v>
@@ -12062,7 +12074,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12085,16 +12097,16 @@
         <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12144,7 +12156,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -12159,7 +12171,7 @@
         <v>63</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>44</v>
@@ -12168,7 +12180,7 @@
         <v>44</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>44</v>
@@ -12176,10 +12188,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>44</v>
@@ -12201,17 +12213,17 @@
         <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -12260,7 +12272,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12275,16 +12287,16 @@
         <v>63</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>44</v>
@@ -12292,7 +12304,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12318,10 +12330,10 @@
         <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12372,7 +12384,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12387,7 +12399,7 @@
         <v>44</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>44</v>
@@ -12404,11 +12416,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -12430,13 +12442,13 @@
         <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12477,7 +12489,7 @@
         <v>99</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>44</v>
@@ -12486,7 +12498,7 @@
         <v>100</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12501,7 +12513,7 @@
         <v>102</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>44</v>
@@ -12518,7 +12530,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12544,16 +12556,16 @@
         <v>71</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>44</v>
@@ -12578,13 +12590,13 @@
         <v>44</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>44</v>
@@ -12602,7 +12614,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12617,7 +12629,7 @@
         <v>63</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>44</v>
@@ -12634,7 +12646,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12657,19 +12669,19 @@
         <v>52</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>44</v>
@@ -12679,7 +12691,7 @@
         <v>44</v>
       </c>
       <c r="R93" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>44</v>
@@ -12694,13 +12706,13 @@
         <v>44</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>44</v>
@@ -12718,7 +12730,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12733,7 +12745,7 @@
         <v>63</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>44</v>
@@ -12742,7 +12754,7 @@
         <v>44</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>44</v>
@@ -12750,7 +12762,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12776,10 +12788,10 @@
         <v>53</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12830,7 +12842,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12845,7 +12857,7 @@
         <v>44</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>44</v>
@@ -12862,11 +12874,11 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12888,13 +12900,13 @@
         <v>96</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
@@ -12935,7 +12947,7 @@
         <v>99</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC95" t="s" s="2">
         <v>44</v>
@@ -12944,7 +12956,7 @@
         <v>100</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12959,7 +12971,7 @@
         <v>102</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>44</v>
@@ -12976,7 +12988,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12999,19 +13011,19 @@
         <v>52</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>44</v>
@@ -13060,7 +13072,7 @@
         <v>44</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -13075,7 +13087,7 @@
         <v>63</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>44</v>
@@ -13084,7 +13096,7 @@
         <v>44</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>44</v>
@@ -13092,7 +13104,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13118,23 +13130,23 @@
         <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>44</v>
@@ -13176,7 +13188,7 @@
         <v>44</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -13191,7 +13203,7 @@
         <v>63</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>44</v>
@@ -13200,7 +13212,7 @@
         <v>44</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>44</v>
@@ -13208,7 +13220,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13234,29 +13246,29 @@
         <v>65</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P98" s="2"/>
       <c r="Q98" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="R98" t="s" s="2">
         <v>44</v>
       </c>
       <c r="S98" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T98" t="s" s="2">
         <v>44</v>
@@ -13292,7 +13304,7 @@
         <v>44</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -13307,7 +13319,7 @@
         <v>63</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>44</v>
@@ -13316,7 +13328,7 @@
         <v>44</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>44</v>
@@ -13324,7 +13336,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13350,13 +13362,13 @@
         <v>53</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13370,7 +13382,7 @@
         <v>44</v>
       </c>
       <c r="S99" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T99" t="s" s="2">
         <v>44</v>
@@ -13379,7 +13391,7 @@
         <v>44</v>
       </c>
       <c r="V99" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="W99" t="s" s="2">
         <v>44</v>
@@ -13406,7 +13418,7 @@
         <v>44</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13421,7 +13433,7 @@
         <v>63</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>44</v>
@@ -13430,7 +13442,7 @@
         <v>44</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>44</v>
@@ -13438,7 +13450,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13461,13 +13473,13 @@
         <v>52</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13518,7 +13530,7 @@
         <v>44</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>42</v>
@@ -13533,7 +13545,7 @@
         <v>63</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>44</v>
@@ -13542,7 +13554,7 @@
         <v>44</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>44</v>
@@ -13550,7 +13562,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13573,16 +13585,16 @@
         <v>52</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13632,7 +13644,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -13647,7 +13659,7 @@
         <v>63</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>44</v>
@@ -13656,7 +13668,7 @@
         <v>44</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>44</v>
@@ -13664,10 +13676,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>44</v>
@@ -13689,17 +13701,17 @@
         <v>52</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
@@ -13748,7 +13760,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13763,16 +13775,16 @@
         <v>63</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -13780,7 +13792,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13806,10 +13818,10 @@
         <v>53</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13860,7 +13872,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13875,7 +13887,7 @@
         <v>44</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>44</v>
@@ -13892,11 +13904,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13918,13 +13930,13 @@
         <v>96</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -13965,7 +13977,7 @@
         <v>99</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC104" t="s" s="2">
         <v>44</v>
@@ -13974,7 +13986,7 @@
         <v>100</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -13989,7 +14001,7 @@
         <v>102</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>44</v>
@@ -14006,7 +14018,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14032,16 +14044,16 @@
         <v>71</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>44</v>
@@ -14066,13 +14078,13 @@
         <v>44</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>44</v>
@@ -14090,7 +14102,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -14105,7 +14117,7 @@
         <v>63</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>44</v>
@@ -14122,7 +14134,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14145,19 +14157,19 @@
         <v>52</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>44</v>
@@ -14167,7 +14179,7 @@
         <v>44</v>
       </c>
       <c r="R106" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>44</v>
@@ -14182,13 +14194,13 @@
         <v>44</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>44</v>
@@ -14206,7 +14218,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -14221,7 +14233,7 @@
         <v>63</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>44</v>
@@ -14230,7 +14242,7 @@
         <v>44</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>44</v>
@@ -14238,7 +14250,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14264,10 +14276,10 @@
         <v>53</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14318,7 +14330,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14333,7 +14345,7 @@
         <v>44</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>44</v>
@@ -14350,11 +14362,11 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -14376,13 +14388,13 @@
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -14423,7 +14435,7 @@
         <v>99</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC108" t="s" s="2">
         <v>44</v>
@@ -14432,7 +14444,7 @@
         <v>100</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14447,7 +14459,7 @@
         <v>102</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>44</v>
@@ -14464,7 +14476,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14487,19 +14499,19 @@
         <v>52</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>44</v>
@@ -14548,7 +14560,7 @@
         <v>44</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>42</v>
@@ -14563,7 +14575,7 @@
         <v>63</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>44</v>
@@ -14572,7 +14584,7 @@
         <v>44</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>44</v>
@@ -14580,7 +14592,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14606,23 +14618,23 @@
         <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P110" s="2"/>
       <c r="Q110" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="R110" t="s" s="2">
         <v>44</v>
@@ -14664,7 +14676,7 @@
         <v>44</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14679,7 +14691,7 @@
         <v>63</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>44</v>
@@ -14688,7 +14700,7 @@
         <v>44</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>44</v>
@@ -14696,7 +14708,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14722,16 +14734,16 @@
         <v>65</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>44</v>
@@ -14744,7 +14756,7 @@
         <v>44</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>44</v>
@@ -14780,7 +14792,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14795,7 +14807,7 @@
         <v>63</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>44</v>
@@ -14804,7 +14816,7 @@
         <v>44</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>44</v>
@@ -14812,7 +14824,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14838,13 +14850,13 @@
         <v>53</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14858,7 +14870,7 @@
         <v>44</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>44</v>
@@ -14894,7 +14906,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14909,7 +14921,7 @@
         <v>63</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>44</v>
@@ -14918,7 +14930,7 @@
         <v>44</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>44</v>
@@ -14926,7 +14938,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14949,13 +14961,13 @@
         <v>52</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15006,7 +15018,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>42</v>
@@ -15021,7 +15033,7 @@
         <v>63</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>44</v>
@@ -15030,7 +15042,7 @@
         <v>44</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>44</v>
@@ -15038,7 +15050,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15061,16 +15073,16 @@
         <v>52</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15120,7 +15132,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -15135,7 +15147,7 @@
         <v>63</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>44</v>
@@ -15144,7 +15156,7 @@
         <v>44</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>44</v>
@@ -15152,10 +15164,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>44</v>
@@ -15177,17 +15189,17 @@
         <v>52</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>44</v>
@@ -15236,7 +15248,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -15251,16 +15263,16 @@
         <v>63</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>44</v>
@@ -15268,7 +15280,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15294,10 +15306,10 @@
         <v>53</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -15348,7 +15360,7 @@
         <v>44</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>42</v>
@@ -15363,7 +15375,7 @@
         <v>44</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>44</v>
@@ -15380,11 +15392,11 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15406,13 +15418,13 @@
         <v>96</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -15453,7 +15465,7 @@
         <v>99</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>44</v>
@@ -15462,7 +15474,7 @@
         <v>100</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>42</v>
@@ -15477,7 +15489,7 @@
         <v>102</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>44</v>
@@ -15494,7 +15506,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15520,16 +15532,16 @@
         <v>71</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>44</v>
@@ -15554,13 +15566,13 @@
         <v>44</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>44</v>
@@ -15578,7 +15590,7 @@
         <v>44</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>42</v>
@@ -15593,7 +15605,7 @@
         <v>63</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>44</v>
@@ -15610,7 +15622,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15633,19 +15645,19 @@
         <v>52</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>44</v>
@@ -15655,7 +15667,7 @@
         <v>44</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>44</v>
@@ -15670,13 +15682,13 @@
         <v>44</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>44</v>
@@ -15694,7 +15706,7 @@
         <v>44</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>42</v>
@@ -15709,7 +15721,7 @@
         <v>63</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>44</v>
@@ -15718,7 +15730,7 @@
         <v>44</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>44</v>
@@ -15726,7 +15738,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15752,10 +15764,10 @@
         <v>53</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15806,7 +15818,7 @@
         <v>44</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>42</v>
@@ -15821,7 +15833,7 @@
         <v>44</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>44</v>
@@ -15838,11 +15850,11 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -15864,13 +15876,13 @@
         <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -15911,7 +15923,7 @@
         <v>99</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>44</v>
@@ -15920,7 +15932,7 @@
         <v>100</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>42</v>
@@ -15935,7 +15947,7 @@
         <v>102</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>44</v>
@@ -15952,7 +15964,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15975,19 +15987,19 @@
         <v>52</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>44</v>
@@ -16036,7 +16048,7 @@
         <v>44</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>42</v>
@@ -16051,7 +16063,7 @@
         <v>63</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>44</v>
@@ -16060,7 +16072,7 @@
         <v>44</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>44</v>
@@ -16068,7 +16080,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16094,23 +16106,23 @@
         <v>53</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P123" s="2"/>
       <c r="Q123" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="R123" t="s" s="2">
         <v>44</v>
@@ -16152,7 +16164,7 @@
         <v>44</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>42</v>
@@ -16167,7 +16179,7 @@
         <v>63</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>44</v>
@@ -16176,7 +16188,7 @@
         <v>44</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>44</v>
@@ -16184,7 +16196,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16210,16 +16222,16 @@
         <v>65</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>44</v>
@@ -16232,7 +16244,7 @@
         <v>44</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>44</v>
@@ -16268,7 +16280,7 @@
         <v>44</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -16283,7 +16295,7 @@
         <v>63</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>44</v>
@@ -16292,7 +16304,7 @@
         <v>44</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>44</v>
@@ -16300,7 +16312,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16326,13 +16338,13 @@
         <v>53</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16346,7 +16358,7 @@
         <v>44</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>44</v>
@@ -16382,7 +16394,7 @@
         <v>44</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16397,7 +16409,7 @@
         <v>63</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>44</v>
@@ -16406,7 +16418,7 @@
         <v>44</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>44</v>
@@ -16414,7 +16426,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16437,13 +16449,13 @@
         <v>52</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -16494,7 +16506,7 @@
         <v>44</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>42</v>
@@ -16509,7 +16521,7 @@
         <v>63</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>44</v>
@@ -16518,7 +16530,7 @@
         <v>44</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>44</v>
@@ -16526,7 +16538,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16549,16 +16561,16 @@
         <v>52</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16608,7 +16620,7 @@
         <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -16623,7 +16635,7 @@
         <v>63</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>44</v>
@@ -16632,7 +16644,7 @@
         <v>44</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>44</v>
@@ -16640,7 +16652,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16666,10 +16678,10 @@
         <v>53</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -16720,7 +16732,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -16735,7 +16747,7 @@
         <v>44</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>44</v>
@@ -16752,11 +16764,11 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -16778,13 +16790,13 @@
         <v>96</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -16825,7 +16837,7 @@
         <v>99</v>
       </c>
       <c r="AB129" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AC129" t="s" s="2">
         <v>44</v>
@@ -16834,7 +16846,7 @@
         <v>100</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -16849,7 +16861,7 @@
         <v>102</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>44</v>
@@ -16866,7 +16878,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16892,13 +16904,13 @@
         <v>53</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -16948,7 +16960,7 @@
         <v>44</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>42</v>
@@ -16957,7 +16969,7 @@
         <v>51</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>63</v>
@@ -16980,7 +16992,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17006,13 +17018,13 @@
         <v>65</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -17038,13 +17050,13 @@
         <v>44</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>44</v>
@@ -17062,7 +17074,7 @@
         <v>44</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>42</v>
@@ -17094,7 +17106,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17117,16 +17129,16 @@
         <v>52</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17176,7 +17188,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -17191,7 +17203,7 @@
         <v>63</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>44</v>
@@ -17208,7 +17220,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17234,13 +17246,13 @@
         <v>53</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
@@ -17290,7 +17302,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -17322,7 +17334,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -17345,70 +17357,70 @@
         <v>52</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P134" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Q134" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE134" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Q134" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -17423,13 +17435,13 @@
         <v>63</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>
@@ -17440,7 +17452,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -17463,19 +17475,19 @@
         <v>52</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>44</v>
@@ -17524,7 +17536,7 @@
         <v>44</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -17539,16 +17551,16 @@
         <v>63</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>44</v>
@@ -17556,7 +17568,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17579,19 +17591,19 @@
         <v>52</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>44</v>
@@ -17640,7 +17652,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -17655,16 +17667,16 @@
         <v>63</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>44</v>
@@ -17672,7 +17684,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -17698,16 +17710,16 @@
         <v>71</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -17732,13 +17744,13 @@
         <v>44</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>44</v>
@@ -17756,7 +17768,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -17771,16 +17783,16 @@
         <v>63</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>44</v>
@@ -17788,7 +17800,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -17811,19 +17823,19 @@
         <v>52</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>44</v>
@@ -17872,7 +17884,7 @@
         <v>44</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>42</v>
@@ -17887,24 +17899,24 @@
         <v>63</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17930,10 +17942,10 @@
         <v>53</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -17984,7 +17996,7 @@
         <v>44</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>42</v>
@@ -18016,7 +18028,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18094,7 +18106,7 @@
         <v>100</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -18126,10 +18138,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>44</v>
@@ -18151,16 +18163,16 @@
         <v>44</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -18210,7 +18222,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -18242,10 +18254,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>44</v>
@@ -18267,13 +18279,13 @@
         <v>44</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18324,7 +18336,7 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>42</v>
@@ -18356,7 +18368,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18379,13 +18391,13 @@
         <v>44</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -18436,7 +18448,7 @@
         <v>44</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>42</v>
@@ -18468,7 +18480,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18491,19 +18503,19 @@
         <v>52</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>44</v>
@@ -18540,17 +18552,17 @@
         <v>44</v>
       </c>
       <c r="AA144" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AB144" s="2"/>
       <c r="AC144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD144" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>42</v>
@@ -18565,16 +18577,16 @@
         <v>63</v>
       </c>
       <c r="AJ144" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>44</v>
@@ -18582,10 +18594,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>44</v>
@@ -18607,19 +18619,19 @@
         <v>52</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>44</v>
@@ -18668,7 +18680,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -18683,16 +18695,16 @@
         <v>63</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>44</v>
@@ -18700,10 +18712,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>44</v>
@@ -18725,19 +18737,19 @@
         <v>52</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>44</v>
@@ -18786,7 +18798,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -18801,16 +18813,16 @@
         <v>63</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>44</v>
@@ -18818,7 +18830,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -18844,10 +18856,10 @@
         <v>53</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -18898,7 +18910,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -18930,7 +18942,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19008,7 +19020,7 @@
         <v>100</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -19040,10 +19052,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C149" t="s" s="2">
         <v>44</v>
@@ -19065,16 +19077,16 @@
         <v>44</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19124,7 +19136,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -19156,7 +19168,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19179,13 +19191,13 @@
         <v>44</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -19236,7 +19248,7 @@
         <v>44</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -19268,7 +19280,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19291,19 +19303,19 @@
         <v>52</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>44</v>
@@ -19352,7 +19364,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -19367,16 +19379,16 @@
         <v>63</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>44</v>
@@ -19384,7 +19396,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19407,17 +19419,17 @@
         <v>44</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>44</v>
@@ -19442,13 +19454,13 @@
         <v>44</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="X152" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Z152" t="s" s="2">
         <v>44</v>
@@ -19466,7 +19478,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -19481,16 +19493,16 @@
         <v>63</v>
       </c>
       <c r="AJ152" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AL152" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>44</v>
@@ -19498,7 +19510,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19521,19 +19533,19 @@
         <v>44</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>44</v>
@@ -19582,7 +19594,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -19597,16 +19609,16 @@
         <v>63</v>
       </c>
       <c r="AJ153" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>44</v>
@@ -19614,7 +19626,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19637,19 +19649,19 @@
         <v>44</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>44</v>
@@ -19698,7 +19710,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -19713,16 +19725,16 @@
         <v>63</v>
       </c>
       <c r="AJ154" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL154" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>44</v>
@@ -19730,7 +19742,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -19753,19 +19765,19 @@
         <v>44</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>44</v>
@@ -19814,7 +19826,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -19826,13 +19838,13 @@
         <v>44</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>44</v>
@@ -19846,7 +19858,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -19872,10 +19884,10 @@
         <v>53</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -19926,7 +19938,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -19941,7 +19953,7 @@
         <v>44</v>
       </c>
       <c r="AJ156" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK156" t="s" s="2">
         <v>44</v>
@@ -19958,11 +19970,11 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -19984,13 +19996,13 @@
         <v>96</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20040,7 +20052,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -20055,7 +20067,7 @@
         <v>102</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>44</v>
@@ -20072,11 +20084,11 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20098,16 +20110,16 @@
         <v>96</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -20156,7 +20168,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -20188,7 +20200,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20211,17 +20223,17 @@
         <v>44</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>44</v>
@@ -20246,13 +20258,13 @@
         <v>44</v>
       </c>
       <c r="W159" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Y159" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>44</v>
@@ -20270,7 +20282,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -20285,16 +20297,16 @@
         <v>63</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>44</v>
@@ -20302,7 +20314,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20325,17 +20337,17 @@
         <v>44</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>44</v>
@@ -20384,7 +20396,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -20399,16 +20411,16 @@
         <v>63</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL160" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>44</v>
@@ -20416,7 +20428,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20439,19 +20451,19 @@
         <v>44</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>44</v>
@@ -20500,7 +20512,7 @@
         <v>44</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -20515,16 +20527,16 @@
         <v>63</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>44</v>
@@ -20532,7 +20544,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20555,17 +20567,17 @@
         <v>44</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M162" s="2"/>
       <c r="N162" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>44</v>
@@ -20614,7 +20626,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -20629,16 +20641,16 @@
         <v>63</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>44</v>
@@ -20646,7 +20658,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20672,14 +20684,14 @@
         <v>71</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -20704,13 +20716,13 @@
         <v>44</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>44</v>
@@ -20728,7 +20740,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -20743,16 +20755,16 @@
         <v>63</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>44</v>
@@ -20760,7 +20772,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -20783,17 +20795,17 @@
         <v>44</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -20842,7 +20854,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -20851,22 +20863,22 @@
         <v>51</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>63</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>44</v>
@@ -20874,7 +20886,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -20897,13 +20909,13 @@
         <v>44</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -20954,7 +20966,7 @@
         <v>44</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>42</v>
@@ -20969,10 +20981,10 @@
         <v>63</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>44</v>
@@ -20986,7 +20998,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21009,19 +21021,19 @@
         <v>44</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="O166" t="s" s="2">
         <v>44</v>
@@ -21070,7 +21082,7 @@
         <v>44</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>42</v>
@@ -21085,10 +21097,10 @@
         <v>63</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AL166" t="s" s="2">
         <v>44</v>
@@ -21102,7 +21114,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21128,10 +21140,10 @@
         <v>53</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -21182,7 +21194,7 @@
         <v>44</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>42</v>
@@ -21197,7 +21209,7 @@
         <v>44</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>44</v>
@@ -21214,11 +21226,11 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -21240,13 +21252,13 @@
         <v>96</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
@@ -21296,7 +21308,7 @@
         <v>44</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>42</v>
@@ -21311,7 +21323,7 @@
         <v>102</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>44</v>
@@ -21328,11 +21340,11 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -21354,16 +21366,16 @@
         <v>96</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>44</v>
@@ -21412,7 +21424,7 @@
         <v>44</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>42</v>
@@ -21444,7 +21456,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -21467,19 +21479,19 @@
         <v>44</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>44</v>
@@ -21504,11 +21516,11 @@
         <v>44</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="X170" s="2"/>
       <c r="Y170" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>44</v>
@@ -21526,7 +21538,7 @@
         <v>44</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>51</v>
@@ -21541,16 +21553,16 @@
         <v>63</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>44</v>
@@ -21558,7 +21570,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -21581,19 +21593,19 @@
         <v>44</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>44</v>
@@ -21642,7 +21654,7 @@
         <v>44</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>42</v>
@@ -21657,16 +21669,16 @@
         <v>63</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>44</v>
@@ -21674,11 +21686,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -21697,16 +21709,16 @@
         <v>44</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -21756,7 +21768,7 @@
         <v>44</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>42</v>
@@ -21771,16 +21783,16 @@
         <v>63</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>44</v>
@@ -21788,7 +21800,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -21811,19 +21823,19 @@
         <v>52</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>44</v>
@@ -21872,7 +21884,7 @@
         <v>44</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>42</v>
@@ -21887,10 +21899,10 @@
         <v>63</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>44</v>
@@ -21904,7 +21916,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -21927,19 +21939,19 @@
         <v>52</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>44</v>
@@ -21988,7 +22000,7 @@
         <v>44</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>42</v>
@@ -22003,10 +22015,10 @@
         <v>63</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>44</v>
@@ -22020,7 +22032,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22046,10 +22058,10 @@
         <v>53</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -22100,7 +22112,7 @@
         <v>44</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>42</v>
@@ -22115,7 +22127,7 @@
         <v>44</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK175" t="s" s="2">
         <v>44</v>
@@ -22132,11 +22144,11 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22158,13 +22170,13 @@
         <v>96</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -22214,7 +22226,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -22229,7 +22241,7 @@
         <v>102</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>44</v>
@@ -22246,11 +22258,11 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -22272,16 +22284,16 @@
         <v>96</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>44</v>
@@ -22330,7 +22342,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -22362,7 +22374,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -22385,16 +22397,16 @@
         <v>52</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
@@ -22444,7 +22456,7 @@
         <v>44</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>51</v>
@@ -22459,16 +22471,16 @@
         <v>63</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>44</v>
@@ -22476,7 +22488,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -22502,10 +22514,10 @@
         <v>71</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -22532,31 +22544,31 @@
         <v>44</v>
       </c>
       <c r="W179" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Y179" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="Z179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD179" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE179" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="Z179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD179" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE179" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>51</v>
@@ -22571,10 +22583,10 @@
         <v>63</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>44</v>
